--- a/data/trans_dic/P42-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P42-Habitat-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.8264992858697441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8078414095856745</v>
+        <v>0.8078414095856746</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7144322799097985</v>
+        <v>0.712248109518802</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8278288790075116</v>
+        <v>0.8284791843871345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.796267664133673</v>
+        <v>0.7935941225728276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7757432246515884</v>
+        <v>0.7729439476442852</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7776874336028288</v>
+        <v>0.7805404390826924</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8816097073480724</v>
+        <v>0.8820615674967544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8548484301713659</v>
+        <v>0.8538441521304587</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.838293463421389</v>
+        <v>0.8374323918821807</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7532256756680492</v>
+        <v>0.7521261716142764</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8261719494703951</v>
+        <v>0.826075958913242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8632858097882721</v>
+        <v>0.863455018356928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8172985378961305</v>
+        <v>0.8183538761775284</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8074200935917837</v>
+        <v>0.8057140482096298</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8728707619525815</v>
+        <v>0.8728367279340354</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9046438037016291</v>
+        <v>0.9020928056514285</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.868354299858578</v>
+        <v>0.8698462747242065</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8018544086449629</v>
+        <v>0.8051779746067245</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8750975839828516</v>
+        <v>0.8764860499024356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8403061498475012</v>
+        <v>0.8419518488349176</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8503831892803253</v>
+        <v>0.8570009674065872</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8579244578773002</v>
+        <v>0.8588647627554534</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9196610877624931</v>
+        <v>0.9211357825753289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8929635551900715</v>
+        <v>0.8935799168950664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9150346881599725</v>
+        <v>0.9171405344184544</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.8914021754255915</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8139361816516122</v>
+        <v>0.8139361816516121</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.777348143832118</v>
+        <v>0.7768192171131881</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8619565916899741</v>
+        <v>0.8607245272959968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8716894867992282</v>
+        <v>0.8714184176099214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7822781032195801</v>
+        <v>0.7836407976851965</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8247287888977809</v>
+        <v>0.8270164345532852</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9025620870983623</v>
+        <v>0.9018692903146383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.909789879974233</v>
+        <v>0.9102259215049083</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8388053142441487</v>
+        <v>0.8385309330578777</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.859655061657092</v>
+        <v>0.8605303238458164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.860250027344613</v>
+        <v>0.8605827847695359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8219393620610372</v>
+        <v>0.8231943605109457</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.88199700183296</v>
+        <v>0.8841206173831254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8836921828125953</v>
+        <v>0.882669712676635</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8522053137540831</v>
+        <v>0.8515774909226135</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>487253</v>
+        <v>485763</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>574621</v>
+        <v>575072</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>533163</v>
+        <v>531372</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>425277</v>
+        <v>423743</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>530394</v>
+        <v>532340</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>611952</v>
+        <v>612265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>572387</v>
+        <v>571714</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>459568</v>
+        <v>459096</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>727502</v>
+        <v>726440</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>847172</v>
+        <v>847073</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>892329</v>
+        <v>892504</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>670917</v>
+        <v>671783</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>779846</v>
+        <v>778198</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>895057</v>
+        <v>895022</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>935079</v>
+        <v>932442</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>712829</v>
+        <v>714053</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>548341</v>
+        <v>550614</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>676390</v>
+        <v>677463</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>654318</v>
+        <v>655599</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>487367</v>
+        <v>491159</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>586684</v>
+        <v>587327</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>710835</v>
+        <v>711974</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>695320</v>
+        <v>695800</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>524419</v>
+        <v>525626</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>802530</v>
+        <v>801983</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>900499</v>
+        <v>899212</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>902380</v>
+        <v>902099</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>670839</v>
+        <v>672007</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>851445</v>
+        <v>853807</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>942920</v>
+        <v>942196</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>941822</v>
+        <v>942273</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>719313</v>
+        <v>719078</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3040766</v>
+        <v>3043862</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3025581</v>
+        <v>3026751</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2301244</v>
+        <v>2304758</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3119794</v>
+        <v>3127305</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3108029</v>
+        <v>3104433</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2385982</v>
+        <v>2384225</v>
       </c>
     </row>
     <row r="24">
